--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H2">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N2">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O2">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P2">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q2">
-        <v>3.905722947383572</v>
+        <v>0.3504075482542222</v>
       </c>
       <c r="R2">
-        <v>3.905722947383572</v>
+        <v>3.153667934288</v>
       </c>
       <c r="S2">
-        <v>0.2163418108791448</v>
+        <v>0.0138802208114006</v>
       </c>
       <c r="T2">
-        <v>0.2163418108791448</v>
+        <v>0.0138802208114006</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H3">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N3">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P3">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q3">
-        <v>4.779462080492125</v>
+        <v>0.4087695114838889</v>
       </c>
       <c r="R3">
-        <v>4.779462080492125</v>
+        <v>3.678925603355</v>
       </c>
       <c r="S3">
-        <v>0.2647390753137116</v>
+        <v>0.01619203441430535</v>
       </c>
       <c r="T3">
-        <v>0.2647390753137116</v>
+        <v>0.01619203441430535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H4">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I4">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J4">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N4">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P4">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q4">
-        <v>1.75144657189389</v>
+        <v>0.1719132362804444</v>
       </c>
       <c r="R4">
-        <v>1.75144657189389</v>
+        <v>1.547219126524</v>
       </c>
       <c r="S4">
-        <v>0.09701433719855258</v>
+        <v>0.006809766775468716</v>
       </c>
       <c r="T4">
-        <v>0.09701433719855258</v>
+        <v>0.006809766775468716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H5">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I5">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J5">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.43953854905478</v>
+        <v>2.767576666666667</v>
       </c>
       <c r="N5">
-        <v>2.43953854905478</v>
+        <v>8.30273</v>
       </c>
       <c r="O5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="P5">
-        <v>0.2111320390176893</v>
+        <v>0.2175407589083977</v>
       </c>
       <c r="Q5">
-        <v>2.793252380781138</v>
+        <v>0.2588634384655555</v>
       </c>
       <c r="R5">
-        <v>2.793252380781138</v>
+        <v>2.32977094619</v>
       </c>
       <c r="S5">
-        <v>0.154720979045759</v>
+        <v>0.01025400766564973</v>
       </c>
       <c r="T5">
-        <v>0.154720979045759</v>
+        <v>0.01025400766564973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H6">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J6">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.41113526211531</v>
+        <v>3.746298666666667</v>
       </c>
       <c r="N6">
-        <v>3.41113526211531</v>
+        <v>11.238896</v>
       </c>
       <c r="O6">
-        <v>0.2952197429036704</v>
+        <v>0.2944715732214049</v>
       </c>
       <c r="P6">
-        <v>0.2952197429036704</v>
+        <v>0.294471573221405</v>
       </c>
       <c r="Q6">
-        <v>1.424021310991298</v>
+        <v>5.123878871009778</v>
       </c>
       <c r="R6">
-        <v>1.424021310991298</v>
+        <v>46.114909839088</v>
       </c>
       <c r="S6">
-        <v>0.07887793202452559</v>
+        <v>0.2029652914008788</v>
       </c>
       <c r="T6">
-        <v>0.07887793202452559</v>
+        <v>0.2029652914008789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H7">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J7">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.17423146913973</v>
+        <v>4.370261666666667</v>
       </c>
       <c r="N7">
-        <v>4.17423146913973</v>
+        <v>13.110785</v>
       </c>
       <c r="O7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="P7">
-        <v>0.3612625845788535</v>
+        <v>0.3435171466234404</v>
       </c>
       <c r="Q7">
-        <v>1.742585418726369</v>
+        <v>5.977284089456111</v>
       </c>
       <c r="R7">
-        <v>1.742585418726369</v>
+        <v>53.795556805105</v>
       </c>
       <c r="S7">
-        <v>0.09652350926514186</v>
+        <v>0.2367700793760589</v>
       </c>
       <c r="T7">
-        <v>0.09652350926514186</v>
+        <v>0.2367700793760589</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H8">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I8">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J8">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.52965820709338</v>
+        <v>1.837969333333333</v>
       </c>
       <c r="N8">
-        <v>1.52965820709338</v>
+        <v>5.513908</v>
       </c>
       <c r="O8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="P8">
-        <v>0.1323856334997869</v>
+        <v>0.1444705212467569</v>
       </c>
       <c r="Q8">
-        <v>0.6385750543597407</v>
+        <v>2.513823127991555</v>
       </c>
       <c r="R8">
-        <v>0.6385750543597407</v>
+        <v>22.624408151924</v>
       </c>
       <c r="S8">
-        <v>0.03537129630123435</v>
+        <v>0.09957667941563272</v>
       </c>
       <c r="T8">
-        <v>0.03537129630123435</v>
+        <v>0.09957667941563272</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.103153</v>
+      </c>
+      <c r="I9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.767576666666667</v>
+      </c>
+      <c r="N9">
+        <v>8.30273</v>
+      </c>
+      <c r="O9">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="P9">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="Q9">
+        <v>3.785263500854445</v>
+      </c>
+      <c r="R9">
+        <v>34.06737150769</v>
+      </c>
+      <c r="S9">
+        <v>0.1499405292008057</v>
+      </c>
+      <c r="T9">
+        <v>0.1499405292008057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.523097</v>
+      </c>
+      <c r="H10">
+        <v>1.569291</v>
+      </c>
+      <c r="I10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.746298666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.238896</v>
+      </c>
+      <c r="O10">
+        <v>0.2944715732214049</v>
+      </c>
+      <c r="P10">
+        <v>0.294471573221405</v>
+      </c>
+      <c r="Q10">
+        <v>1.959677593637333</v>
+      </c>
+      <c r="R10">
+        <v>17.637098342736</v>
+      </c>
+      <c r="S10">
+        <v>0.07762606100912554</v>
+      </c>
+      <c r="T10">
+        <v>0.07762606100912556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="H9">
-        <v>0.41746257523316</v>
-      </c>
-      <c r="I9">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="J9">
-        <v>0.267183797562832</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.43953854905478</v>
-      </c>
-      <c r="N9">
-        <v>2.43953854905478</v>
-      </c>
-      <c r="O9">
-        <v>0.2111320390176893</v>
-      </c>
-      <c r="P9">
-        <v>0.2111320390176893</v>
-      </c>
-      <c r="Q9">
-        <v>1.018416045068975</v>
-      </c>
-      <c r="R9">
-        <v>1.018416045068975</v>
-      </c>
-      <c r="S9">
-        <v>0.05641105997193024</v>
-      </c>
-      <c r="T9">
-        <v>0.05641105997193024</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.523097</v>
+      </c>
+      <c r="H11">
+        <v>1.569291</v>
+      </c>
+      <c r="I11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.370261666666667</v>
+      </c>
+      <c r="N11">
+        <v>13.110785</v>
+      </c>
+      <c r="O11">
+        <v>0.3435171466234404</v>
+      </c>
+      <c r="P11">
+        <v>0.3435171466234404</v>
+      </c>
+      <c r="Q11">
+        <v>2.286070767048334</v>
+      </c>
+      <c r="R11">
+        <v>20.574636903435</v>
+      </c>
+      <c r="S11">
+        <v>0.09055503283307614</v>
+      </c>
+      <c r="T11">
+        <v>0.09055503283307614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.523097</v>
+      </c>
+      <c r="H12">
+        <v>1.569291</v>
+      </c>
+      <c r="I12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.837969333333333</v>
+      </c>
+      <c r="N12">
+        <v>5.513908</v>
+      </c>
+      <c r="O12">
+        <v>0.1444705212467569</v>
+      </c>
+      <c r="P12">
+        <v>0.1444705212467569</v>
+      </c>
+      <c r="Q12">
+        <v>0.9614362443586667</v>
+      </c>
+      <c r="R12">
+        <v>8.652926199228</v>
+      </c>
+      <c r="S12">
+        <v>0.03808407505565542</v>
+      </c>
+      <c r="T12">
+        <v>0.03808407505565542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.523097</v>
+      </c>
+      <c r="H13">
+        <v>1.569291</v>
+      </c>
+      <c r="I13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.767576666666667</v>
+      </c>
+      <c r="N13">
+        <v>8.30273</v>
+      </c>
+      <c r="O13">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="P13">
+        <v>0.2175407589083977</v>
+      </c>
+      <c r="Q13">
+        <v>1.447711051603334</v>
+      </c>
+      <c r="R13">
+        <v>13.02939946443</v>
+      </c>
+      <c r="S13">
+        <v>0.05734622204194229</v>
+      </c>
+      <c r="T13">
+        <v>0.05734622204194229</v>
       </c>
     </row>
   </sheetData>
